--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>1058.45234</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>219.9785428011348</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13593.15094617436</v>
+        <v>13353.0396394537</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661334</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18690.150147</v>
+        <v>19280.01512841276</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21017.96724662211</v>
+        <v>19769.780047248</v>
       </c>
       <c r="M2" t="n">
-        <v>6170.755240650456</v>
+        <v>6189.307227245999</v>
       </c>
       <c r="N2" t="n">
-        <v>5915.786803633408</v>
+        <v>5916.04978961903</v>
       </c>
       <c r="O2" t="n">
-        <v>3629.795705449937</v>
+        <v>3628.902239611257</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5283.346474395485</v>
+        <v>5509.197086876458</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>219.9785428011348</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42643.03738889057</v>
+        <v>42163.71916364003</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661334</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31344.95906720703</v>
+        <v>32768.08478625982</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>100774.1349615344</v>
+        <v>97840.49618645621</v>
       </c>
       <c r="M2" t="n">
-        <v>25009.25110715229</v>
+        <v>25068.1401224518</v>
       </c>
       <c r="N2" t="n">
-        <v>18881.43502974809</v>
+        <v>18737.14587442649</v>
       </c>
       <c r="O2" t="n">
-        <v>9583.910600165666</v>
+        <v>9388.359958958175</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10841.86770941399</v>
+        <v>10977.65528745425</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>219.9785428011348</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102088.9915810644</v>
+        <v>101592.8485440411</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661334</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>86831.25744596496</v>
+        <v>90311.50106276383</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>169640.5713083645</v>
+        <v>162903.684434925</v>
       </c>
       <c r="M2" t="n">
-        <v>63192.70638794326</v>
+        <v>62989.88316641681</v>
       </c>
       <c r="N2" t="n">
-        <v>28912.49896794283</v>
+        <v>28844.50644753356</v>
       </c>
       <c r="O2" t="n">
-        <v>26906.16041479544</v>
+        <v>26680.765002863</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10841.86770941399</v>
+        <v>10977.65528745425</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>219.9785428011348</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102088.9915810644</v>
+        <v>101592.8485440411</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661334</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>86831.25744596496</v>
+        <v>90311.50106276383</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>169640.5713083645</v>
+        <v>162903.684434925</v>
       </c>
       <c r="M2" t="n">
-        <v>63192.70638794326</v>
+        <v>62989.88316641681</v>
       </c>
       <c r="N2" t="n">
-        <v>28912.49896794283</v>
+        <v>28844.50644753356</v>
       </c>
       <c r="O2" t="n">
-        <v>26906.16041479544</v>
+        <v>26680.765002863</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10841.86770941399</v>
+        <v>10977.65528745425</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>219.9785428011348</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102088.9915810644</v>
+        <v>101592.8485440411</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661334</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>86831.25744596496</v>
+        <v>90311.50106276383</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>169640.5713083645</v>
+        <v>162903.684434925</v>
       </c>
       <c r="M2" t="n">
-        <v>63192.70638794326</v>
+        <v>62989.88316641681</v>
       </c>
       <c r="N2" t="n">
-        <v>28912.49896794283</v>
+        <v>28844.50644753356</v>
       </c>
       <c r="O2" t="n">
-        <v>26906.16041479544</v>
+        <v>26680.765002863</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10841.86770941399</v>
+        <v>10977.65528745425</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>219.9785428011348</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102088.9915810644</v>
+        <v>101592.8485440411</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661334</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>86831.25744596496</v>
+        <v>90311.50106276383</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>169640.5713083645</v>
+        <v>162903.684434925</v>
       </c>
       <c r="M2" t="n">
-        <v>63192.70638794326</v>
+        <v>62989.88316641681</v>
       </c>
       <c r="N2" t="n">
-        <v>28912.49896794283</v>
+        <v>28844.50644753356</v>
       </c>
       <c r="O2" t="n">
-        <v>26906.16041479544</v>
+        <v>26680.765002863</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1058.45234</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>219.9785428011348</v>
+        <v>5.438409379980164</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13353.0396394537</v>
+        <v>13.8685083630681</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>7.286333141395652</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19280.01512841276</v>
+        <v>31.113977708736</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>19769.780047248</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6189.307227245999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5916.04978961903</v>
+        <v>5.509232805222357</v>
       </c>
       <c r="O2" t="n">
-        <v>3628.902239611257</v>
+        <v>7.699071822006548</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5509.197086876458</v>
+        <v>4.076683804611164</v>
       </c>
       <c r="B2" t="n">
-        <v>219.9785428011348</v>
+        <v>14.51626430546461</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42163.71916364003</v>
+        <v>52.5371909617916</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>7.286333141395652</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>32768.08478625982</v>
+        <v>89.10456262881476</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>97840.49618645621</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>25068.1401224518</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18737.14587442649</v>
+        <v>14.69975952558718</v>
       </c>
       <c r="O2" t="n">
-        <v>9388.359958958175</v>
+        <v>15.6885967255526</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10977.65528745425</v>
+        <v>9.387042818425533</v>
       </c>
       <c r="B2" t="n">
-        <v>219.9785428011348</v>
+        <v>28.57439580287139</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101592.8485440411</v>
+        <v>110.6943404773012</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>7.286333141395652</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>90311.50106276383</v>
+        <v>175.1020809179774</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>162903.684434925</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62989.88316641681</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28844.50644753356</v>
+        <v>34.06603877554542</v>
       </c>
       <c r="O2" t="n">
-        <v>26680.765002863</v>
+        <v>29.92527795685744</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10977.65528745425</v>
+        <v>9.387042818425533</v>
       </c>
       <c r="B2" t="n">
-        <v>219.9785428011348</v>
+        <v>28.57439580287139</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101592.8485440411</v>
+        <v>110.6943404773012</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>7.286333141395652</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>90311.50106276383</v>
+        <v>175.1020809179774</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>162903.684434925</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62989.88316641681</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28844.50644753356</v>
+        <v>34.06603877554542</v>
       </c>
       <c r="O2" t="n">
-        <v>26680.765002863</v>
+        <v>31.04159785275999</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10977.65528745425</v>
+        <v>11.71497725772599</v>
       </c>
       <c r="B2" t="n">
-        <v>219.9785428011348</v>
+        <v>28.57439580287139</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101592.8485440411</v>
+        <v>110.6943404773012</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>7.286333141395652</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>90311.50106276383</v>
+        <v>175.1020809179774</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>162903.684434925</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62989.88316641681</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28844.50644753356</v>
+        <v>34.06603877554542</v>
       </c>
       <c r="O2" t="n">
-        <v>26680.765002863</v>
+        <v>32.01064906012979</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10977.65528745425</v>
+        <v>11.71497725772599</v>
       </c>
       <c r="B2" t="n">
-        <v>219.9785428011348</v>
+        <v>28.57439580287139</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101592.8485440411</v>
+        <v>110.6943404773012</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>7.286333141395652</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>90311.50106276383</v>
+        <v>175.1020809179774</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>162903.684434925</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62989.88316641681</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28844.50644753356</v>
+        <v>34.06603877554542</v>
       </c>
       <c r="O2" t="n">
-        <v>26680.765002863</v>
+        <v>32.01064906012979</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13593.15094617436</v>
+        <v>13593.15094617446</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661334</v>
+        <v>8095.925712661868</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21017.96724662211</v>
+        <v>21017.96724662233</v>
       </c>
       <c r="M2" t="n">
-        <v>6170.755240650456</v>
+        <v>6170.755240650091</v>
       </c>
       <c r="N2" t="n">
-        <v>5915.786803633408</v>
+        <v>5915.786803633272</v>
       </c>
       <c r="O2" t="n">
-        <v>3629.795705449937</v>
+        <v>3629.79570544987</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5283.346474395485</v>
+        <v>5283.346474395456</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -672,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42643.03738889057</v>
+        <v>42643.03738889052</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661334</v>
+        <v>8095.925712661868</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>100774.1349615344</v>
       </c>
       <c r="M2" t="n">
-        <v>25009.25110715229</v>
+        <v>25009.25110715227</v>
       </c>
       <c r="N2" t="n">
-        <v>18881.43502974809</v>
+        <v>18881.4350297479</v>
       </c>
       <c r="O2" t="n">
-        <v>9583.910600165666</v>
+        <v>9583.910600165662</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10841.86770941399</v>
+        <v>10841.86770941353</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102088.9915810644</v>
+        <v>102088.9915810646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661334</v>
+        <v>8095.925712661868</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>86831.25744596496</v>
+        <v>86831.25744596474</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>169640.5713083645</v>
       </c>
       <c r="M2" t="n">
-        <v>63192.70638794326</v>
+        <v>63192.70638794317</v>
       </c>
       <c r="N2" t="n">
-        <v>28912.49896794283</v>
+        <v>28912.49896794311</v>
       </c>
       <c r="O2" t="n">
-        <v>26906.16041479544</v>
+        <v>26906.1604147956</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +946,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10841.86770941399</v>
+        <v>10841.86770941353</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102088.9915810644</v>
+        <v>102088.9915810646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661334</v>
+        <v>8095.925712661868</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>86831.25744596496</v>
+        <v>86831.25744596474</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>169640.5713083645</v>
       </c>
       <c r="M2" t="n">
-        <v>63192.70638794326</v>
+        <v>63192.70638794317</v>
       </c>
       <c r="N2" t="n">
-        <v>28912.49896794283</v>
+        <v>28912.49896794311</v>
       </c>
       <c r="O2" t="n">
-        <v>26906.16041479544</v>
+        <v>26906.1604147956</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10841.86770941399</v>
+        <v>10841.86770941353</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102088.9915810644</v>
+        <v>102088.9915810646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661334</v>
+        <v>8095.925712661868</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>86831.25744596496</v>
+        <v>86831.25744596474</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1125,13 +1125,13 @@
         <v>169640.5713083645</v>
       </c>
       <c r="M2" t="n">
-        <v>63192.70638794326</v>
+        <v>63192.70638794317</v>
       </c>
       <c r="N2" t="n">
-        <v>28912.49896794283</v>
+        <v>28912.49896794311</v>
       </c>
       <c r="O2" t="n">
-        <v>26906.16041479544</v>
+        <v>26906.1604147956</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10841.86770941399</v>
+        <v>10841.86770941353</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102088.9915810644</v>
+        <v>102088.9915810646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661334</v>
+        <v>8095.925712661868</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>86831.25744596496</v>
+        <v>86831.25744596474</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>169640.5713083645</v>
       </c>
       <c r="M2" t="n">
-        <v>63192.70638794326</v>
+        <v>63192.70638794317</v>
       </c>
       <c r="N2" t="n">
-        <v>28912.49896794283</v>
+        <v>28912.49896794311</v>
       </c>
       <c r="O2" t="n">
-        <v>26906.16041479544</v>
+        <v>26906.1604147956</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.438409379980164</v>
+        <v>1037.265132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.8685083630681</v>
+        <v>28926.05393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31.113977708736</v>
+        <v>16171.06685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>48492.22142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>10595.37713982</v>
       </c>
       <c r="N2" t="n">
-        <v>5.509232805222357</v>
+        <v>7074.779504295464</v>
       </c>
       <c r="O2" t="n">
-        <v>7.699071822006548</v>
+        <v>6994.715574734591</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.076683804611164</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14.51626430546461</v>
+        <v>4157.588990853394</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52.5371909617916</v>
+        <v>45991.90904307188</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>89.10456262881476</v>
+        <v>37079.12819938764</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>17449.04999683176</v>
       </c>
       <c r="N2" t="n">
-        <v>14.69975952558718</v>
+        <v>9029.080117872556</v>
       </c>
       <c r="O2" t="n">
-        <v>15.6885967255526</v>
+        <v>9726.534234532202</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.387042818425533</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>34.06603877554542</v>
+        <v>13040.8373108866</v>
       </c>
       <c r="O2" t="n">
-        <v>29.92527795685744</v>
+        <v>12862.69800702035</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.387042818425533</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>34.06603877554542</v>
+        <v>13158.56380735076</v>
       </c>
       <c r="O2" t="n">
-        <v>31.04159785275999</v>
+        <v>12862.69800702035</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.71497725772599</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>34.06603877554542</v>
+        <v>13608.52715637408</v>
       </c>
       <c r="O2" t="n">
-        <v>32.01064906012979</v>
+        <v>14941.40968327155</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.71497725772599</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>34.06603877554542</v>
+        <v>13608.52715637408</v>
       </c>
       <c r="O2" t="n">
-        <v>32.01064906012979</v>
+        <v>14941.40968327155</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1058.45234</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>163.8785132452183</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13593.15094617446</v>
+        <v>29373.04047649619</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661868</v>
+        <v>8095.925712662081</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18690.150147</v>
+        <v>14226.4654638</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21017.96724662233</v>
+        <v>52565.24050318201</v>
       </c>
       <c r="M2" t="n">
-        <v>6170.755240650091</v>
+        <v>11122.93683490001</v>
       </c>
       <c r="N2" t="n">
-        <v>5915.786803633272</v>
+        <v>7153.127252081828</v>
       </c>
       <c r="O2" t="n">
-        <v>3629.79570544987</v>
+        <v>6740.037144737531</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5283.346474395456</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3621.201352202925</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42643.03738889052</v>
+        <v>46276.83881500272</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661868</v>
+        <v>8095.925712662081</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31344.95906720703</v>
+        <v>27616.95133493994</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>100774.1349615344</v>
+        <v>67850.52531539467</v>
       </c>
       <c r="M2" t="n">
-        <v>25009.25110715227</v>
+        <v>17156.21802301183</v>
       </c>
       <c r="N2" t="n">
-        <v>18881.4350297479</v>
+        <v>9350.481590010937</v>
       </c>
       <c r="O2" t="n">
-        <v>9583.910600165662</v>
+        <v>7922.305858074526</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10841.86770941353</v>
+        <v>1996.189159356778</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5489.13724092291</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102088.9915810646</v>
+        <v>58469.22207274068</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661868</v>
+        <v>8095.925712662081</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>86831.25744596474</v>
+        <v>44652.67197233895</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>169640.5713083645</v>
+        <v>67850.52531539467</v>
       </c>
       <c r="M2" t="n">
-        <v>63192.70638794317</v>
+        <v>22830.83258296281</v>
       </c>
       <c r="N2" t="n">
-        <v>28912.49896794311</v>
+        <v>13810.81513926498</v>
       </c>
       <c r="O2" t="n">
-        <v>26906.1604147956</v>
+        <v>13171.29956178489</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10841.86770941353</v>
+        <v>1996.189159356778</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5489.13724092291</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102088.9915810646</v>
+        <v>58469.22207274068</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661868</v>
+        <v>8095.925712662081</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>86831.25744596474</v>
+        <v>44652.67197233895</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>169640.5713083645</v>
+        <v>67850.52531539467</v>
       </c>
       <c r="M2" t="n">
-        <v>63192.70638794317</v>
+        <v>22830.83258296281</v>
       </c>
       <c r="N2" t="n">
-        <v>28912.49896794311</v>
+        <v>13810.81513926498</v>
       </c>
       <c r="O2" t="n">
-        <v>26906.1604147956</v>
+        <v>13171.29956178489</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10841.86770941353</v>
+        <v>1996.189159356778</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5489.13724092291</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102088.9915810646</v>
+        <v>58469.22207274068</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661868</v>
+        <v>8095.925712662081</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>86831.25744596474</v>
+        <v>44652.67197233895</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>169640.5713083645</v>
+        <v>67850.52531539467</v>
       </c>
       <c r="M2" t="n">
-        <v>63192.70638794317</v>
+        <v>22830.83258296281</v>
       </c>
       <c r="N2" t="n">
-        <v>28912.49896794311</v>
+        <v>13810.81513926498</v>
       </c>
       <c r="O2" t="n">
-        <v>26906.1604147956</v>
+        <v>13171.29956178489</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10841.86770941353</v>
+        <v>1996.189159356778</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5489.13724092291</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102088.9915810646</v>
+        <v>58469.22207274068</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661868</v>
+        <v>8095.925712662081</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>86831.25744596474</v>
+        <v>44652.67197233895</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>169640.5713083645</v>
+        <v>67850.52531539467</v>
       </c>
       <c r="M2" t="n">
-        <v>63192.70638794317</v>
+        <v>22830.83258296281</v>
       </c>
       <c r="N2" t="n">
-        <v>28912.49896794311</v>
+        <v>13810.81513926498</v>
       </c>
       <c r="O2" t="n">
-        <v>26906.1604147956</v>
+        <v>13171.29956178489</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,55 +461,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -517,10 +507,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1058.45234</v>
+        <v>3574.049118100613</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>65653.14246997499</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13593.15094617446</v>
+        <v>11555.30700760342</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661868</v>
+        <v>2534.277928792126</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18690.150147</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +540,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21017.96724662233</v>
+        <v>2040.863560262497</v>
       </c>
       <c r="M2" t="n">
-        <v>6170.755240650091</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5915.786803633272</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3629.79570544987</v>
+        <v>1996.112248849872</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,55 +588,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -660,10 +634,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5283.346474395456</v>
+        <v>10238.05110071552</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>213603.0100789435</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42643.03738889052</v>
+        <v>18408.373649052</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661868</v>
+        <v>7448.027758327713</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31344.95906720703</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +667,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>100774.1349615344</v>
+        <v>8404.005235363233</v>
       </c>
       <c r="M2" t="n">
-        <v>25009.25110715227</v>
-      </c>
-      <c r="N2" t="n">
-        <v>18881.4350297479</v>
-      </c>
-      <c r="O2" t="n">
-        <v>9583.910600165662</v>
+        <v>5709.431641187626</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,55 +715,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -803,10 +761,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10841.86770941353</v>
+        <v>25819.04985772192</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>319945.6066103103</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102088.9915810646</v>
+        <v>23367.96764111931</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661868</v>
+        <v>11595.71584387754</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>86831.25744596474</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +794,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>169640.5713083645</v>
+        <v>16279.70435793497</v>
       </c>
       <c r="M2" t="n">
-        <v>63192.70638794317</v>
-      </c>
-      <c r="N2" t="n">
-        <v>28912.49896794311</v>
-      </c>
-      <c r="O2" t="n">
-        <v>26906.1604147956</v>
+        <v>9655.767294985375</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -890,55 +842,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -946,10 +888,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10841.86770941353</v>
+        <v>25819.04985772192</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>319945.6066103103</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102088.9915810646</v>
+        <v>23367.96764111931</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661868</v>
+        <v>11595.71584387754</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>86831.25744596474</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +921,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>169640.5713083645</v>
+        <v>16279.70435793497</v>
       </c>
       <c r="M2" t="n">
-        <v>63192.70638794317</v>
-      </c>
-      <c r="N2" t="n">
-        <v>28912.49896794311</v>
-      </c>
-      <c r="O2" t="n">
-        <v>26906.1604147956</v>
+        <v>9655.767294985375</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,55 +969,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1089,10 +1015,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10841.86770941353</v>
+        <v>25819.04985772192</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>319945.6066103103</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102088.9915810646</v>
+        <v>23367.96764111931</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661868</v>
+        <v>11595.71584387754</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>86831.25744596474</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1048,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>169640.5713083645</v>
+        <v>16279.70435793497</v>
       </c>
       <c r="M2" t="n">
-        <v>63192.70638794317</v>
-      </c>
-      <c r="N2" t="n">
-        <v>28912.49896794311</v>
-      </c>
-      <c r="O2" t="n">
-        <v>26906.1604147956</v>
+        <v>9655.767294985375</v>
       </c>
     </row>
   </sheetData>
@@ -1145,7 +1065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,55 +1096,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1232,10 +1142,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10841.86770941353</v>
+        <v>25819.04985772192</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>319945.6066103103</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102088.9915810646</v>
+        <v>23367.96764111931</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661868</v>
+        <v>11595.71584387754</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>86831.25744596474</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1175,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>169640.5713083645</v>
+        <v>16279.70435793497</v>
       </c>
       <c r="M2" t="n">
-        <v>63192.70638794317</v>
-      </c>
-      <c r="N2" t="n">
-        <v>28912.49896794311</v>
-      </c>
-      <c r="O2" t="n">
-        <v>26906.1604147956</v>
+        <v>9655.767294985375</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,55 +461,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -517,10 +507,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>3938.434305843788</v>
       </c>
       <c r="B2" t="n">
-        <v>5.438409379980164</v>
+        <v>66480.85919970302</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.8685083630681</v>
+        <v>10685.63911138124</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>2534.277928792158</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31.113977708736</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +540,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2056.329432152094</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.509232805222357</v>
-      </c>
-      <c r="O2" t="n">
-        <v>7.699071822006548</v>
+        <v>1996.112248849845</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,55 +588,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -660,10 +634,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.076683804611164</v>
+        <v>11607.78587874054</v>
       </c>
       <c r="B2" t="n">
-        <v>14.51626430546461</v>
+        <v>213442.9430617537</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52.5371909617916</v>
+        <v>16490.08959283756</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>7410.946080941627</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>89.10456262881476</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +667,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7957.513699474704</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>14.69975952558718</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15.6885967255526</v>
+        <v>5739.440742183293</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,55 +715,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -803,10 +761,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.387042818425533</v>
+        <v>28593.22402990987</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>316256.4953925062</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>20506.00288427315</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>11593.76417664663</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +794,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>15951.18356335931</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>34.06603877554542</v>
-      </c>
-      <c r="O2" t="n">
-        <v>29.92527795685744</v>
+        <v>9657.341346495847</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -890,55 +842,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -946,10 +888,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.387042818425533</v>
+        <v>28593.22402990987</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>316256.4953925062</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>20506.00288427315</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>11593.76417664663</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +921,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>15951.18356335931</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>34.06603877554542</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.04159785275999</v>
+        <v>9657.341346495847</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,55 +969,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1089,10 +1015,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.71497725772599</v>
+        <v>28593.22402990987</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>316256.4953925062</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>20506.00288427315</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>11593.76417664663</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1048,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>15951.18356335931</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>34.06603877554542</v>
-      </c>
-      <c r="O2" t="n">
-        <v>32.01064906012979</v>
+        <v>9657.341346495847</v>
       </c>
     </row>
   </sheetData>
@@ -1145,7 +1065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,55 +1096,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1232,10 +1142,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.71497725772599</v>
+        <v>28593.22402990987</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>316256.4953925062</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>20506.00288427315</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>11593.76417664663</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1175,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>15951.18356335931</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>34.06603877554542</v>
-      </c>
-      <c r="O2" t="n">
-        <v>32.01064906012979</v>
+        <v>9657.341346495847</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,60 +446,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -507,29 +517,29 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3574.049118100613</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>65653.14246997499</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34850.02913702199</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11555.30700760342</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1000.138367865942</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>2534.277928792126</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -540,9 +550,15 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2040.863560262497</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>218031.1156391199</v>
+      </c>
+      <c r="O2" t="n">
         <v>1996.112248849872</v>
       </c>
     </row>
@@ -557,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,60 +589,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -634,29 +660,29 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10238.05110071552</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>213603.0100789435</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>149504.1992614464</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>18408.373649052</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1000.138367865942</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>7448.027758327713</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -667,10 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8404.005235363233</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5709.431641187626</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>228053.6181928575</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5709.431641187627</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,60 +732,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -761,28 +803,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25819.04985772192</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>319945.6066103103</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>253633.6218973605</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23367.96764111931</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>15729.44046117129</v>
       </c>
       <c r="G2" t="n">
-        <v>11595.71584387754</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11595.71584387759</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -794,10 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16279.70435793497</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9655.767294985375</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>233561.946346158</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9655.767294985335</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,60 +875,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -888,28 +946,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25819.04985772192</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>319945.6066103103</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>253633.6218973605</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23367.96764111931</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>15729.44046117129</v>
       </c>
       <c r="G2" t="n">
-        <v>11595.71584387754</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11595.71584387759</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -921,10 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16279.70435793497</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9655.767294985375</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>233561.9463461617</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9655.767294985335</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,60 +1018,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1015,28 +1089,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25819.04985772192</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>319945.6066103103</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>253633.6218973605</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23367.96764111931</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>15729.44046117129</v>
       </c>
       <c r="G2" t="n">
-        <v>11595.71584387754</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11595.71584387759</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1048,10 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16279.70435793497</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9655.767294985375</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>233561.9463461617</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9655.767294985335</v>
       </c>
     </row>
   </sheetData>
@@ -1065,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,60 +1161,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1142,28 +1232,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25819.04985772192</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>319945.6066103103</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>253633.6218973605</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23367.96764111931</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>15729.44046117129</v>
       </c>
       <c r="G2" t="n">
-        <v>11595.71584387754</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11595.71584387759</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1175,10 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16279.70435793497</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9655.767294985375</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>233561.9463461617</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9655.767294985335</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>34850.02913702199</v>
+        <v>21196.21639127643</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>1000.138367865942</v>
+        <v>7011.593805924288</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2534.277928792126</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5013.549447909097</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>218031.1156391199</v>
+        <v>65091.92957691202</v>
       </c>
       <c r="O2" t="n">
-        <v>1996.112248849872</v>
+        <v>11014.11545720004</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>149504.1992614464</v>
+        <v>156636.5577795477</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,16 +675,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>1000.138367865942</v>
+        <v>14969.99622709799</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7448.027758327713</v>
+        <v>2919.7820448899</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5013.549447909097</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>228053.6181928575</v>
+        <v>65091.92957691202</v>
       </c>
       <c r="O2" t="n">
-        <v>5709.431641187627</v>
+        <v>11014.11545720004</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>5857.818991320204</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>253633.6218973605</v>
+        <v>279280.6744905264</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,16 +818,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>15729.44046117129</v>
+        <v>17988.88284447148</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11595.71584387759</v>
+        <v>9623.861955403325</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5013.549447909097</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>233561.946346158</v>
+        <v>65091.92957691202</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.767294985335</v>
+        <v>11014.11545720004</v>
       </c>
     </row>
   </sheetData>
@@ -946,13 +946,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>5857.818991320204</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>253633.6218973605</v>
+        <v>279280.6744905264</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -961,16 +961,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>15729.44046117129</v>
+        <v>17988.88284447148</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11595.71584387759</v>
+        <v>9623.861955403325</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5013.549447909097</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>233561.9463461617</v>
+        <v>65091.92957691202</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.767294985335</v>
+        <v>11014.11545720004</v>
       </c>
     </row>
   </sheetData>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>5857.818991320204</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>253633.6218973605</v>
+        <v>279280.6744905264</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>15729.44046117129</v>
+        <v>17988.88284447148</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11595.71584387759</v>
+        <v>9623.861955403325</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5013.549447909097</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>233561.9463461617</v>
+        <v>65091.92957691202</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.767294985335</v>
+        <v>11014.11545720004</v>
       </c>
     </row>
   </sheetData>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>5857.818991320204</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>253633.6218973605</v>
+        <v>279280.6744905264</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>15729.44046117129</v>
+        <v>17988.88284447148</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11595.71584387759</v>
+        <v>9623.861955403325</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5013.549447909097</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>233561.9463461617</v>
+        <v>65091.92957691202</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.767294985335</v>
+        <v>11014.11545720004</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,60 +446,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -507,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3938.434305843788</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>66480.85919970302</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>22248.96157305166</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10685.63911138124</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6560.172332187693</v>
       </c>
       <c r="G2" t="n">
-        <v>2534.277928792158</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5033.158209140529</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -540,10 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2056.329432152094</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1996.112248849845</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>65046.35979746832</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11060.84673356009</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,60 +589,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -634,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11607.78587874054</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>213442.9430617537</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>157484.2051604276</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>16490.08959283756</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>14956.45358288589</v>
       </c>
       <c r="G2" t="n">
-        <v>7410.946080941627</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2898.172057777255</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5033.158209140529</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -667,10 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7957.513699474704</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5739.440742183293</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>65046.35979746832</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11060.84673356009</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,60 +732,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -761,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28593.22402990987</v>
+        <v>8256.153154123484</v>
       </c>
       <c r="B2" t="n">
-        <v>316256.4953925062</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>275457.7993989314</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20506.00288427315</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16322.72130059859</v>
       </c>
       <c r="G2" t="n">
-        <v>11593.76417664663</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9579.692079004355</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5033.158209140529</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -794,10 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15951.18356335931</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9657.341346495847</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>65046.35979746832</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11060.84673356009</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,60 +875,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -888,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28593.22402990987</v>
+        <v>8256.153154123484</v>
       </c>
       <c r="B2" t="n">
-        <v>316256.4953925062</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>275457.7993989314</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20506.00288427315</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16322.72130059859</v>
       </c>
       <c r="G2" t="n">
-        <v>11593.76417664663</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9579.692079004355</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5033.158209140529</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -921,10 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15951.18356335931</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9657.341346495847</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>65046.35979746832</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11060.84673356009</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,60 +1018,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1015,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28593.22402990987</v>
+        <v>8256.153154123484</v>
       </c>
       <c r="B2" t="n">
-        <v>316256.4953925062</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>275457.7993989314</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20506.00288427315</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16322.72130059859</v>
       </c>
       <c r="G2" t="n">
-        <v>11593.76417664663</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9579.692079004355</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5033.158209140529</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1048,10 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15951.18356335931</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9657.341346495847</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>65046.35979746832</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11060.84673356009</v>
       </c>
     </row>
   </sheetData>
@@ -1065,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,60 +1161,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1142,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28593.22402990987</v>
+        <v>8256.153154123484</v>
       </c>
       <c r="B2" t="n">
-        <v>316256.4953925062</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>275457.7993989314</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20506.00288427315</v>
+        <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16322.72130059859</v>
       </c>
       <c r="G2" t="n">
-        <v>11593.76417664663</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9579.692079004355</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5033.158209140529</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1175,10 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15951.18356335931</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9657.341346495847</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>65046.35979746832</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11060.84673356009</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>3045.562741043213</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>21196.21639127643</v>
+        <v>19582.22040511559</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>7011.593805924288</v>
+        <v>11208.00296121414</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2534.277928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>5013.549447909097</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>65091.92957691202</v>
+        <v>2869.682585720876</v>
       </c>
       <c r="O2" t="n">
-        <v>11014.11545720004</v>
+        <v>1996.112248849872</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>4694.699513036906</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>156636.5577795477</v>
+        <v>168808.2497440079</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,16 +675,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>14969.99622709799</v>
+        <v>16666.25319396838</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2919.7820448899</v>
+        <v>7448.027758327713</v>
       </c>
       <c r="I2" t="n">
-        <v>5013.549447909097</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>65091.92957691202</v>
+        <v>10748.00480130683</v>
       </c>
       <c r="O2" t="n">
-        <v>11014.11545720004</v>
+        <v>5709.431641187626</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5857.818991320204</v>
+        <v>19864.98642361004</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>279280.6744905264</v>
+        <v>274695.2175708351</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,16 +818,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>17988.88284447148</v>
+        <v>23237.2185198162</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9623.861955403325</v>
+        <v>11595.71584387755</v>
       </c>
       <c r="I2" t="n">
-        <v>5013.549447909097</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>65091.92957691202</v>
+        <v>15646.08198685082</v>
       </c>
       <c r="O2" t="n">
-        <v>11014.11545720004</v>
+        <v>9655.767294985377</v>
       </c>
     </row>
   </sheetData>
@@ -946,13 +946,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5857.818991320204</v>
+        <v>19864.98642361004</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>279280.6744905264</v>
+        <v>274695.2175708351</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -961,16 +961,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>17988.88284447148</v>
+        <v>23237.2185198162</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9623.861955403325</v>
+        <v>11595.71584387755</v>
       </c>
       <c r="I2" t="n">
-        <v>5013.549447909097</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>65091.92957691202</v>
+        <v>15646.08198685082</v>
       </c>
       <c r="O2" t="n">
-        <v>11014.11545720004</v>
+        <v>9655.767294985377</v>
       </c>
     </row>
   </sheetData>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5857.818991320204</v>
+        <v>19864.98642361004</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>279280.6744905264</v>
+        <v>274695.2175708351</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>17988.88284447148</v>
+        <v>23237.2185198162</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9623.861955403325</v>
+        <v>11595.71584387755</v>
       </c>
       <c r="I2" t="n">
-        <v>5013.549447909097</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>65091.92957691202</v>
+        <v>15646.08198685082</v>
       </c>
       <c r="O2" t="n">
-        <v>11014.11545720004</v>
+        <v>9655.767294985377</v>
       </c>
     </row>
   </sheetData>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5857.818991320204</v>
+        <v>19864.98642361004</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>279280.6744905264</v>
+        <v>274695.2175708351</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>17988.88284447148</v>
+        <v>23237.2185198162</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9623.861955403325</v>
+        <v>11595.71584387755</v>
       </c>
       <c r="I2" t="n">
-        <v>5013.549447909097</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>65091.92957691202</v>
+        <v>15646.08198685082</v>
       </c>
       <c r="O2" t="n">
-        <v>11014.11545720004</v>
+        <v>9655.767294985377</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>3434.230276161567</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>22248.96157305166</v>
+        <v>20296.61332037171</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>6560.172332187693</v>
+        <v>10458.14894156114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2534.27792879215</v>
       </c>
       <c r="I2" t="n">
-        <v>5033.158209140529</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>65046.35979746832</v>
+        <v>2695.148313631609</v>
       </c>
       <c r="O2" t="n">
-        <v>11060.84673356009</v>
+        <v>1996.112248849851</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>6149.122203392265</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>157484.2051604276</v>
+        <v>167556.5189553056</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,16 +675,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>14956.45358288589</v>
+        <v>16483.26488774296</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2898.172057777255</v>
+        <v>7410.946080941627</v>
       </c>
       <c r="I2" t="n">
-        <v>5033.158209140529</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>65046.35979746832</v>
+        <v>10115.44580480222</v>
       </c>
       <c r="O2" t="n">
-        <v>11060.84673356009</v>
+        <v>5739.440742183294</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8256.153154123484</v>
+        <v>23349.88630504491</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>275457.7993989314</v>
+        <v>270527.7920454951</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,16 +818,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>16322.72130059859</v>
+        <v>20208.68920250407</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9579.692079004355</v>
+        <v>11593.76417664672</v>
       </c>
       <c r="I2" t="n">
-        <v>5033.158209140529</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>65046.35979746832</v>
+        <v>14899.29352260145</v>
       </c>
       <c r="O2" t="n">
-        <v>11060.84673356009</v>
+        <v>9657.341346495774</v>
       </c>
     </row>
   </sheetData>
@@ -946,13 +946,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8256.153154123484</v>
+        <v>23349.88630504491</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>275457.7993989314</v>
+        <v>270527.7920454951</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -961,16 +961,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>16322.72130059859</v>
+        <v>20208.68920250407</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9579.692079004355</v>
+        <v>11593.76417664672</v>
       </c>
       <c r="I2" t="n">
-        <v>5033.158209140529</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>65046.35979746832</v>
+        <v>14899.29352260145</v>
       </c>
       <c r="O2" t="n">
-        <v>11060.84673356009</v>
+        <v>9657.341346495774</v>
       </c>
     </row>
   </sheetData>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8256.153154123484</v>
+        <v>23349.88630504491</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>275457.7993989314</v>
+        <v>270527.7920454951</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>16322.72130059859</v>
+        <v>20208.68920250407</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9579.692079004355</v>
+        <v>11593.76417664672</v>
       </c>
       <c r="I2" t="n">
-        <v>5033.158209140529</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>65046.35979746832</v>
+        <v>14899.29352260145</v>
       </c>
       <c r="O2" t="n">
-        <v>11060.84673356009</v>
+        <v>9657.341346495774</v>
       </c>
     </row>
   </sheetData>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8256.153154123484</v>
+        <v>23349.88630504491</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>275457.7993989314</v>
+        <v>270527.7920454951</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>695202.8899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>16322.72130059859</v>
+        <v>20208.68920250407</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9579.692079004355</v>
+        <v>11593.76417664672</v>
       </c>
       <c r="I2" t="n">
-        <v>5033.158209140529</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>65046.35979746832</v>
+        <v>14899.29352260145</v>
       </c>
       <c r="O2" t="n">
-        <v>11060.84673356009</v>
+        <v>9657.341346495774</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -517,22 +517,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3045.562741043213</v>
+        <v>3103.735953709716</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19582.22040511559</v>
+        <v>46625.35738505773</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>11208.00296121414</v>
+        <v>11213.53952582715</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2869.682585720876</v>
+        <v>2793.407275141782</v>
       </c>
       <c r="O2" t="n">
-        <v>1996.112248849872</v>
+        <v>1996.112248849871</v>
       </c>
     </row>
   </sheetData>
@@ -660,22 +660,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4694.699513036906</v>
+        <v>4715.909809172602</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>168808.2497440079</v>
+        <v>195841.1014708526</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>16666.25319396838</v>
+        <v>16708.30800431701</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>10748.00480130683</v>
+        <v>10726.50661339266</v>
       </c>
       <c r="O2" t="n">
         <v>5709.431641187626</v>
@@ -803,28 +803,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19864.98642361004</v>
+        <v>19821.34895087182</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>274695.2175708351</v>
+        <v>301781.2584303018</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>23237.2185198162</v>
+        <v>23250.62248541781</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11595.71584387755</v>
+        <v>11595.71584387609</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15646.08198685082</v>
+        <v>15673.54429868973</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.767294985377</v>
+        <v>9655.767294986728</v>
       </c>
     </row>
   </sheetData>
@@ -946,28 +946,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19864.98642361004</v>
+        <v>19821.34895087182</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>274695.2175708351</v>
+        <v>301781.2584303018</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>23237.2185198162</v>
+        <v>23250.62248541781</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11595.71584387755</v>
+        <v>11595.71584387609</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15646.08198685082</v>
+        <v>15673.54429868973</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.767294985377</v>
+        <v>9655.767294986728</v>
       </c>
     </row>
   </sheetData>
@@ -1089,28 +1089,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19864.98642361004</v>
+        <v>19821.34895087182</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>274695.2175708351</v>
+        <v>301781.2584303018</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>23237.2185198162</v>
+        <v>23250.62248541781</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11595.71584387755</v>
+        <v>11595.71584387609</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15646.08198685082</v>
+        <v>15673.54429868973</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.767294985377</v>
+        <v>9655.767294986728</v>
       </c>
     </row>
   </sheetData>
@@ -1232,28 +1232,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19864.98642361004</v>
+        <v>19821.34895087182</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>274695.2175708351</v>
+        <v>301781.2584303018</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>23237.2185198162</v>
+        <v>23250.62248541781</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11595.71584387755</v>
+        <v>11595.71584387609</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15646.08198685082</v>
+        <v>15673.54429868973</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.767294985377</v>
+        <v>9655.767294986728</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -517,28 +517,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3434.230276161567</v>
+        <v>3457.63287660481</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>20296.61332037171</v>
+        <v>47351.22198540746</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>10458.14894156114</v>
+        <v>10465.28316756398</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2534.27792879215</v>
+        <v>2534.277928792128</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2695.148313631609</v>
+        <v>2626.136097277389</v>
       </c>
       <c r="O2" t="n">
-        <v>1996.112248849851</v>
+        <v>1996.112248849868</v>
       </c>
     </row>
   </sheetData>
@@ -660,28 +660,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6149.122203392265</v>
+        <v>6286.174668797132</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>167556.5189553056</v>
+        <v>194612.4813176465</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>16483.26488774296</v>
+        <v>16483.47891452305</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7410.946080941627</v>
+        <v>7410.946080941625</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>10115.44580480222</v>
+        <v>10031.75289467668</v>
       </c>
       <c r="O2" t="n">
-        <v>5739.440742183294</v>
+        <v>5739.440742183293</v>
       </c>
     </row>
   </sheetData>
@@ -803,22 +803,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23349.88630504491</v>
+        <v>23353.14179406186</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>270527.7920454951</v>
+        <v>297583.754407836</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20208.68920250407</v>
+        <v>20208.90322928415</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14899.29352260145</v>
+        <v>14891.70518976931</v>
       </c>
       <c r="O2" t="n">
-        <v>9657.341346495774</v>
+        <v>9657.34134649577</v>
       </c>
     </row>
   </sheetData>
@@ -946,22 +946,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23349.88630504491</v>
+        <v>23353.14179406186</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>270527.7920454951</v>
+        <v>297583.754407836</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20208.68920250407</v>
+        <v>20208.90322928415</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14899.29352260145</v>
+        <v>14891.70518976931</v>
       </c>
       <c r="O2" t="n">
-        <v>9657.341346495774</v>
+        <v>9657.34134649577</v>
       </c>
     </row>
   </sheetData>
@@ -1089,22 +1089,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23349.88630504491</v>
+        <v>23353.14179406186</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>270527.7920454951</v>
+        <v>297583.754407836</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20208.68920250407</v>
+        <v>20208.90322928415</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14899.29352260145</v>
+        <v>14891.70518976931</v>
       </c>
       <c r="O2" t="n">
-        <v>9657.341346495774</v>
+        <v>9657.34134649577</v>
       </c>
     </row>
   </sheetData>
@@ -1232,22 +1232,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23349.88630504491</v>
+        <v>23353.14179406186</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>270527.7920454951</v>
+        <v>297583.754407836</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>695202.8899878451</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20208.68920250407</v>
+        <v>20208.90322928415</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14899.29352260145</v>
+        <v>14891.70518976931</v>
       </c>
       <c r="O2" t="n">
-        <v>9657.341346495774</v>
+        <v>9657.34134649577</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>163.8785132452183</v>
+        <v>132.021302159999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29373.04047649619</v>
+        <v>29438.60104869408</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662081</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>14226.4654638</v>
+        <v>14174.76361456303</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52565.24050318201</v>
+        <v>52558.32829870572</v>
       </c>
       <c r="M2" t="n">
-        <v>11122.93683490001</v>
+        <v>11132.49242710001</v>
       </c>
       <c r="N2" t="n">
-        <v>7153.127252081828</v>
+        <v>7211.629754433677</v>
       </c>
       <c r="O2" t="n">
-        <v>6740.037144737531</v>
+        <v>6821.594717536615</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3621.201352202925</v>
+        <v>4743.52105312454</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46276.83881500272</v>
+        <v>56948.83413643156</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662081</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>27616.95133493994</v>
+        <v>32800.48841919314</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>67850.52531539467</v>
+        <v>82211.88392976951</v>
       </c>
       <c r="M2" t="n">
-        <v>17156.21802301183</v>
+        <v>21558.28453827675</v>
       </c>
       <c r="N2" t="n">
-        <v>9350.481590010937</v>
+        <v>10979.3631303427</v>
       </c>
       <c r="O2" t="n">
-        <v>7922.305858074526</v>
+        <v>9591.909189750015</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1996.189159356778</v>
+        <v>1990.187149144482</v>
       </c>
       <c r="B2" t="n">
-        <v>5489.13724092291</v>
+        <v>6771.312033453911</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>58469.22207274068</v>
+        <v>68594.62611205096</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662081</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44652.67197233895</v>
+        <v>49425.72334238004</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>67850.52531539467</v>
+        <v>82211.88392976951</v>
       </c>
       <c r="M2" t="n">
-        <v>22830.83258296281</v>
+        <v>26927.48989038075</v>
       </c>
       <c r="N2" t="n">
-        <v>13810.81513926498</v>
+        <v>16039.77123262105</v>
       </c>
       <c r="O2" t="n">
-        <v>13171.29956178489</v>
+        <v>15303.0518371641</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1996.189159356778</v>
+        <v>1990.187149144482</v>
       </c>
       <c r="B2" t="n">
-        <v>5489.13724092291</v>
+        <v>6771.312033453911</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>58469.22207274068</v>
+        <v>68594.62611205096</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662081</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44652.67197233895</v>
+        <v>49425.72334238004</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>67850.52531539467</v>
+        <v>82211.88392976951</v>
       </c>
       <c r="M2" t="n">
-        <v>22830.83258296281</v>
+        <v>26927.48989038075</v>
       </c>
       <c r="N2" t="n">
-        <v>13810.81513926498</v>
+        <v>16039.77123262105</v>
       </c>
       <c r="O2" t="n">
-        <v>13171.29956178489</v>
+        <v>15303.0518371641</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1996.189159356778</v>
+        <v>1990.187149144482</v>
       </c>
       <c r="B2" t="n">
-        <v>5489.13724092291</v>
+        <v>6771.312033453911</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>58469.22207274068</v>
+        <v>68594.62611205096</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662081</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44652.67197233895</v>
+        <v>49425.72334238004</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>67850.52531539467</v>
+        <v>82211.88392976951</v>
       </c>
       <c r="M2" t="n">
-        <v>22830.83258296281</v>
+        <v>26927.48989038075</v>
       </c>
       <c r="N2" t="n">
-        <v>13810.81513926498</v>
+        <v>16039.77123262105</v>
       </c>
       <c r="O2" t="n">
-        <v>13171.29956178489</v>
+        <v>15303.0518371641</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1996.189159356778</v>
+        <v>1990.187149144482</v>
       </c>
       <c r="B2" t="n">
-        <v>5489.13724092291</v>
+        <v>6771.312033453911</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>58469.22207274068</v>
+        <v>68594.62611205096</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662081</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44652.67197233895</v>
+        <v>49425.72334238004</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>67850.52531539467</v>
+        <v>82211.88392976951</v>
       </c>
       <c r="M2" t="n">
-        <v>22830.83258296281</v>
+        <v>26927.48989038075</v>
       </c>
       <c r="N2" t="n">
-        <v>13810.81513926498</v>
+        <v>16039.77123262105</v>
       </c>
       <c r="O2" t="n">
-        <v>13171.29956178489</v>
+        <v>15303.0518371641</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1037.265132737054</v>
+        <v>973.9537847600009</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28926.05393052954</v>
+        <v>28982.37596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16171.06685703679</v>
+        <v>16175.28135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48492.22142001599</v>
+        <v>48524.529503538</v>
       </c>
       <c r="M2" t="n">
-        <v>10595.37713982</v>
+        <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7074.779504295464</v>
+        <v>7158.131594847755</v>
       </c>
       <c r="O2" t="n">
-        <v>6994.715574734591</v>
+        <v>6981.145263461231</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4157.588990853394</v>
+        <v>5712.560177842886</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45991.90904307188</v>
+        <v>56106.05588781912</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>37079.12819938764</v>
+        <v>44217.8984721661</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>17449.04999683176</v>
+        <v>21984.28023276101</v>
       </c>
       <c r="N2" t="n">
-        <v>9029.080117872556</v>
+        <v>10598.18910437709</v>
       </c>
       <c r="O2" t="n">
-        <v>9726.534234532202</v>
+        <v>12064.7721182177</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13040.8373108866</v>
+        <v>15138.42652842583</v>
       </c>
       <c r="O2" t="n">
-        <v>12862.69800702035</v>
+        <v>14762.98081419999</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13158.56380735076</v>
+        <v>15242.98365687085</v>
       </c>
       <c r="O2" t="n">
-        <v>12862.69800702035</v>
+        <v>14762.98081419999</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13608.52715637408</v>
+        <v>15779.3841405625</v>
       </c>
       <c r="O2" t="n">
-        <v>14941.40968327155</v>
+        <v>17100.41772974749</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13608.52715637408</v>
+        <v>15779.3841405625</v>
       </c>
       <c r="O2" t="n">
-        <v>14941.40968327155</v>
+        <v>17100.41772974749</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2793.407275141782</v>
+        <v>2793.407275141781</v>
       </c>
       <c r="O2" t="n">
         <v>1996.112248849871</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4715.909809172602</v>
+        <v>4715.909809172604</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>16708.30800431701</v>
+        <v>16708.308004317</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>10726.50661339266</v>
+        <v>10726.5066133927</v>
       </c>
       <c r="O2" t="n">
         <v>5709.431641187626</v>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19821.34895087182</v>
+        <v>19821.3489508719</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>301781.2584303018</v>
+        <v>301781.2584303019</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>23250.62248541781</v>
+        <v>23250.62248541732</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11595.71584387609</v>
+        <v>11595.71584387824</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15673.54429868973</v>
+        <v>15673.54429868986</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.767294986728</v>
+        <v>9655.767294984733</v>
       </c>
     </row>
   </sheetData>
@@ -946,13 +946,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19821.34895087182</v>
+        <v>19821.3489508719</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>301781.2584303018</v>
+        <v>301781.2584303019</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>23250.62248541781</v>
+        <v>23250.62248541732</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11595.71584387609</v>
+        <v>11595.71584387824</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15673.54429868973</v>
+        <v>15673.54429868986</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.767294986728</v>
+        <v>9655.767294984733</v>
       </c>
     </row>
   </sheetData>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19821.34895087182</v>
+        <v>19821.3489508719</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>301781.2584303018</v>
+        <v>301781.2584303019</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>23250.62248541781</v>
+        <v>23250.62248541732</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11595.71584387609</v>
+        <v>11595.71584387824</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15673.54429868973</v>
+        <v>15673.54429868986</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.767294986728</v>
+        <v>9655.767294984733</v>
       </c>
     </row>
   </sheetData>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19821.34895087182</v>
+        <v>19821.3489508719</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>301781.2584303018</v>
+        <v>301781.2584303019</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>23250.62248541781</v>
+        <v>23250.62248541732</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11595.71584387609</v>
+        <v>11595.71584387824</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15673.54429868973</v>
+        <v>15673.54429868986</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.767294986728</v>
+        <v>9655.767294984733</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3457.63287660481</v>
+        <v>3457.632876604806</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>47351.22198540746</v>
+        <v>47346.75218859861</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,13 +532,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>10465.28316756398</v>
+        <v>10467.2020657225</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2534.277928792128</v>
+        <v>2534.27792879215</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2626.136097277389</v>
+        <v>2583.502907191341</v>
       </c>
       <c r="O2" t="n">
-        <v>1996.112248849868</v>
+        <v>1996.112248849852</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6286.174668797132</v>
+        <v>6269.192575771305</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>194612.4813176465</v>
+        <v>194663.6768644083</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>16483.47891452305</v>
+        <v>16483.5364814678</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7410.946080941625</v>
+        <v>7410.946080941627</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>10031.75289467668</v>
+        <v>9731.203580846515</v>
       </c>
       <c r="O2" t="n">
-        <v>5739.440742183293</v>
+        <v>5739.440742183295</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23353.14179406186</v>
+        <v>23349.89606194734</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>297583.754407836</v>
+        <v>297636.2411782873</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20208.90322928415</v>
+        <v>20260.51825080488</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664672</v>
+        <v>11593.76417664705</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14891.70518976931</v>
+        <v>14678.60568532714</v>
       </c>
       <c r="O2" t="n">
-        <v>9657.34134649577</v>
+        <v>9657.341346495457</v>
       </c>
     </row>
   </sheetData>
@@ -946,13 +946,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23353.14179406186</v>
+        <v>23349.89606194734</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>297583.754407836</v>
+        <v>297636.2411782873</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20208.90322928415</v>
+        <v>20260.51825080488</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664672</v>
+        <v>11593.76417664705</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14891.70518976931</v>
+        <v>14678.60568532714</v>
       </c>
       <c r="O2" t="n">
-        <v>9657.34134649577</v>
+        <v>9657.341346495457</v>
       </c>
     </row>
   </sheetData>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23353.14179406186</v>
+        <v>23349.89606194734</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>297583.754407836</v>
+        <v>297636.2411782873</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20208.90322928415</v>
+        <v>20260.51825080488</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664672</v>
+        <v>11593.76417664705</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14891.70518976931</v>
+        <v>14678.60568532714</v>
       </c>
       <c r="O2" t="n">
-        <v>9657.34134649577</v>
+        <v>9657.341346495457</v>
       </c>
     </row>
   </sheetData>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23353.14179406186</v>
+        <v>23349.89606194734</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>297583.754407836</v>
+        <v>297636.2411782873</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20208.90322928415</v>
+        <v>20260.51825080488</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664672</v>
+        <v>11593.76417664705</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14891.70518976931</v>
+        <v>14678.60568532714</v>
       </c>
       <c r="O2" t="n">
-        <v>9657.34134649577</v>
+        <v>9657.341346495457</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3457.632876604806</v>
+        <v>3906.399109145206</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>47346.75218859861</v>
+        <v>48353.76274462014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,13 +532,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>10467.2020657225</v>
+        <v>9433.134471502228</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2534.27792879215</v>
+        <v>2534.277928792104</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2583.502907191341</v>
+        <v>2368.085410105587</v>
       </c>
       <c r="O2" t="n">
-        <v>1996.112248849852</v>
+        <v>1996.112248849888</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6269.192575771305</v>
+        <v>6991.052031681918</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>194663.6768644083</v>
+        <v>197913.7502057619</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>16483.5364814678</v>
+        <v>16452.51445364119</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7410.946080941627</v>
+        <v>8194.52068131253</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9731.203580846515</v>
+        <v>7546.08779474431</v>
       </c>
       <c r="O2" t="n">
-        <v>5739.440742183295</v>
+        <v>6258.805786094594</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23349.89606194734</v>
+        <v>31236.29455387744</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>297636.2411782873</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20260.51825080488</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664705</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14678.60568532714</v>
+        <v>12893.74290450278</v>
       </c>
       <c r="O2" t="n">
-        <v>9657.341346495457</v>
+        <v>9265.399564033123</v>
       </c>
     </row>
   </sheetData>
@@ -946,13 +946,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23349.89606194734</v>
+        <v>31236.29455387744</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>297636.2411782873</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20260.51825080488</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664705</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14678.60568532714</v>
+        <v>14051.59265694596</v>
       </c>
       <c r="O2" t="n">
-        <v>9657.341346495457</v>
+        <v>9265.399564033123</v>
       </c>
     </row>
   </sheetData>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23349.89606194734</v>
+        <v>38906.8534480406</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>193.0947398408091</v>
       </c>
       <c r="C2" t="n">
-        <v>297636.2411782873</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20260.51825080488</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664705</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14678.60568532714</v>
+        <v>16889.45207698157</v>
       </c>
       <c r="O2" t="n">
-        <v>9657.341346495457</v>
+        <v>10098.21437025084</v>
       </c>
     </row>
   </sheetData>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23349.89606194734</v>
+        <v>38906.8534480406</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>193.0947398408091</v>
       </c>
       <c r="C2" t="n">
-        <v>297636.2411782873</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>20260.51825080488</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664705</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14678.60568532714</v>
+        <v>16889.45207698157</v>
       </c>
       <c r="O2" t="n">
-        <v>9657.341346495457</v>
+        <v>10098.21437025084</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2793.407275141781</v>
+        <v>2793.407275141782</v>
       </c>
       <c r="O2" t="n">
         <v>1996.112248849871</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4715.909809172604</v>
+        <v>4715.909809172603</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>10726.5066133927</v>
+        <v>10726.50661339263</v>
       </c>
       <c r="O2" t="n">
         <v>5709.431641187626</v>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19821.3489508719</v>
+        <v>19821.34895087178</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>301781.2584303019</v>
+        <v>301781.2584303018</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>23250.62248541732</v>
+        <v>23250.6224854181</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11595.71584387824</v>
+        <v>11595.71584387784</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15673.54429868986</v>
+        <v>15673.54429868963</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.767294984733</v>
+        <v>9655.7672949851</v>
       </c>
     </row>
   </sheetData>
@@ -946,13 +946,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19821.3489508719</v>
+        <v>19821.34895087178</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>301781.2584303019</v>
+        <v>301781.2584303018</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>23250.62248541732</v>
+        <v>23250.6224854181</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11595.71584387824</v>
+        <v>11595.71584387784</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15673.54429868986</v>
+        <v>15673.54429868963</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.767294984733</v>
+        <v>9655.7672949851</v>
       </c>
     </row>
   </sheetData>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19821.3489508719</v>
+        <v>19821.34895087178</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>301781.2584303019</v>
+        <v>301781.2584303018</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>23250.62248541732</v>
+        <v>23250.6224854181</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11595.71584387824</v>
+        <v>11595.71584387784</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15673.54429868986</v>
+        <v>15673.54429868963</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.767294984733</v>
+        <v>9655.7672949851</v>
       </c>
     </row>
   </sheetData>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19821.3489508719</v>
+        <v>19821.34895087178</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>301781.2584303019</v>
+        <v>301781.2584303018</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>23250.62248541732</v>
+        <v>23250.6224854181</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11595.71584387824</v>
+        <v>11595.71584387784</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15673.54429868986</v>
+        <v>15673.54429868963</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.767294984733</v>
+        <v>9655.7672949851</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29438.60104869408</v>
+        <v>29438.60104869407</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661897</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>11132.49242710001</v>
       </c>
       <c r="N2" t="n">
-        <v>7211.629754433677</v>
+        <v>7211.629754433662</v>
       </c>
       <c r="O2" t="n">
-        <v>6821.594717536615</v>
+        <v>6821.594717536612</v>
       </c>
     </row>
   </sheetData>
@@ -672,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56948.83413643156</v>
+        <v>56948.83413643153</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661897</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>21558.28453827675</v>
       </c>
       <c r="N2" t="n">
-        <v>10979.3631303427</v>
+        <v>10979.36313034268</v>
       </c>
       <c r="O2" t="n">
         <v>9591.909189750015</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1990.187149144482</v>
+        <v>1990.187149144449</v>
       </c>
       <c r="B2" t="n">
         <v>6771.312033453911</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>68594.62611205096</v>
+        <v>68594.62611205097</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661897</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>49425.72334238004</v>
+        <v>49425.7233423803</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>26927.48989038075</v>
       </c>
       <c r="N2" t="n">
-        <v>16039.77123262105</v>
+        <v>16039.77123262108</v>
       </c>
       <c r="O2" t="n">
-        <v>15303.0518371641</v>
+        <v>15303.05183716388</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +946,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1990.187149144482</v>
+        <v>1990.187149144449</v>
       </c>
       <c r="B2" t="n">
         <v>6771.312033453911</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>68594.62611205096</v>
+        <v>68594.62611205097</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661897</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>49425.72334238004</v>
+        <v>49425.7233423803</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>26927.48989038075</v>
       </c>
       <c r="N2" t="n">
-        <v>16039.77123262105</v>
+        <v>16039.77123262108</v>
       </c>
       <c r="O2" t="n">
-        <v>15303.0518371641</v>
+        <v>15303.05183716388</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1990.187149144482</v>
+        <v>1990.187149144449</v>
       </c>
       <c r="B2" t="n">
         <v>6771.312033453911</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>68594.62611205096</v>
+        <v>68594.62611205097</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661897</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>49425.72334238004</v>
+        <v>49425.7233423803</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>26927.48989038075</v>
       </c>
       <c r="N2" t="n">
-        <v>16039.77123262105</v>
+        <v>16039.77123262108</v>
       </c>
       <c r="O2" t="n">
-        <v>15303.0518371641</v>
+        <v>15303.05183716388</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1990.187149144482</v>
+        <v>1990.187149144449</v>
       </c>
       <c r="B2" t="n">
         <v>6771.312033453911</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>68594.62611205096</v>
+        <v>68594.62611205097</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661897</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>49425.72334238004</v>
+        <v>49425.7233423803</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>26927.48989038075</v>
       </c>
       <c r="N2" t="n">
-        <v>16039.77123262105</v>
+        <v>16039.77123262108</v>
       </c>
       <c r="O2" t="n">
-        <v>15303.0518371641</v>
+        <v>15303.05183716388</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_fix_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_fix_cost.xlsx
@@ -556,10 +556,10 @@
         <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7158.131594847755</v>
+        <v>7158.131594847751</v>
       </c>
       <c r="O2" t="n">
-        <v>6981.145263461231</v>
+        <v>6981.145263461227</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5712.560177842886</v>
+        <v>5707.815717280662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44217.8984721661</v>
+        <v>44492.05901988943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>21984.28023276101</v>
+        <v>21991.42050229464</v>
       </c>
       <c r="N2" t="n">
-        <v>10598.18910437709</v>
+        <v>10598.18910437708</v>
       </c>
       <c r="O2" t="n">
-        <v>12064.7721182177</v>
+        <v>12082.01802941186</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15138.42652842583</v>
+        <v>15125.63395528735</v>
       </c>
       <c r="O2" t="n">
-        <v>14762.98081419999</v>
+        <v>14763.87599448636</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15242.98365687085</v>
+        <v>15232.91015561297</v>
       </c>
       <c r="O2" t="n">
-        <v>14762.98081419999</v>
+        <v>14763.87599448636</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15779.3841405625</v>
+        <v>15778.54231138309</v>
       </c>
       <c r="O2" t="n">
-        <v>17100.41772974749</v>
+        <v>17101.31291003395</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15779.3841405625</v>
+        <v>15778.54231138309</v>
       </c>
       <c r="O2" t="n">
-        <v>17100.41772974749</v>
+        <v>17101.31291003395</v>
       </c>
     </row>
   </sheetData>
